--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Egf-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Egf-Erbb3.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.044179</v>
+        <v>0.05914533333333333</v>
       </c>
       <c r="H2">
-        <v>0.132537</v>
+        <v>0.177436</v>
       </c>
       <c r="I2">
-        <v>0.03840354245492683</v>
+        <v>0.07385227547053584</v>
       </c>
       <c r="J2">
-        <v>0.03840354245492684</v>
+        <v>0.07385227547053583</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.02516733333333333</v>
+        <v>0.1698666666666667</v>
       </c>
       <c r="N2">
-        <v>0.075502</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="O2">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="P2">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="Q2">
-        <v>0.001111867619333333</v>
+        <v>0.01004682062222222</v>
       </c>
       <c r="R2">
-        <v>0.010006808574</v>
+        <v>0.0904213856</v>
       </c>
       <c r="S2">
-        <v>0.0001877243707336176</v>
+        <v>0.003266971210881872</v>
       </c>
       <c r="T2">
-        <v>0.0001877243707336176</v>
+        <v>0.003266971210881871</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.044179</v>
+        <v>0.05914533333333333</v>
       </c>
       <c r="H3">
-        <v>0.132537</v>
+        <v>0.177436</v>
       </c>
       <c r="I3">
-        <v>0.03840354245492683</v>
+        <v>0.07385227547053584</v>
       </c>
       <c r="J3">
-        <v>0.03840354245492684</v>
+        <v>0.07385227547053583</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.146943</v>
       </c>
       <c r="O3">
-        <v>0.07425620492571647</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="P3">
-        <v>0.07425620492571648</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="Q3">
-        <v>0.01689026493233334</v>
+        <v>0.02261210868311111</v>
       </c>
       <c r="R3">
-        <v>0.152012384391</v>
+        <v>0.203508978148</v>
       </c>
       <c r="S3">
-        <v>0.002851701318406499</v>
+        <v>0.007352884147414612</v>
       </c>
       <c r="T3">
-        <v>0.0028517013184065</v>
+        <v>0.007352884147414611</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.044179</v>
+        <v>0.05914533333333333</v>
       </c>
       <c r="H4">
-        <v>0.132537</v>
+        <v>0.177436</v>
       </c>
       <c r="I4">
-        <v>0.03840354245492683</v>
+        <v>0.07385227547053584</v>
       </c>
       <c r="J4">
-        <v>0.03840354245492684</v>
+        <v>0.07385227547053583</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.7297406666666667</v>
+        <v>0.655462</v>
       </c>
       <c r="N4">
-        <v>2.189222</v>
+        <v>1.966386</v>
       </c>
       <c r="O4">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="P4">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="Q4">
-        <v>0.03223921291266667</v>
+        <v>0.03876751847733333</v>
       </c>
       <c r="R4">
-        <v>0.290152916214</v>
+        <v>0.348907666296</v>
       </c>
       <c r="S4">
-        <v>0.005443171337794915</v>
+        <v>0.01260621360180761</v>
       </c>
       <c r="T4">
-        <v>0.005443171337794916</v>
+        <v>0.01260621360180761</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.044179</v>
+        <v>0.05914533333333333</v>
       </c>
       <c r="H5">
-        <v>0.132537</v>
+        <v>0.177436</v>
       </c>
       <c r="I5">
-        <v>0.03840354245492683</v>
+        <v>0.07385227547053584</v>
       </c>
       <c r="J5">
-        <v>0.03840354245492684</v>
+        <v>0.07385227547053583</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.257809</v>
+        <v>1.828665666666667</v>
       </c>
       <c r="N5">
-        <v>9.773427</v>
+        <v>5.485997</v>
       </c>
       <c r="O5">
-        <v>0.6327582086804054</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="P5">
-        <v>0.6327582086804056</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="Q5">
-        <v>0.143926743811</v>
+        <v>0.1081570404102222</v>
       </c>
       <c r="R5">
-        <v>1.295340694299</v>
+        <v>0.9734133636919999</v>
       </c>
       <c r="S5">
-        <v>0.0243001567307614</v>
+        <v>0.0351699259458091</v>
       </c>
       <c r="T5">
-        <v>0.02430015673076141</v>
+        <v>0.03516992594580909</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.044179</v>
+        <v>0.05914533333333333</v>
       </c>
       <c r="H6">
-        <v>0.132537</v>
+        <v>0.177436</v>
       </c>
       <c r="I6">
-        <v>0.03840354245492683</v>
+        <v>0.07385227547053584</v>
       </c>
       <c r="J6">
-        <v>0.03840354245492684</v>
+        <v>0.07385227547053583</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1514643333333333</v>
+        <v>0.07852066666666667</v>
       </c>
       <c r="N6">
-        <v>0.454393</v>
+        <v>0.235562</v>
       </c>
       <c r="O6">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="P6">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="Q6">
-        <v>0.006691542782333334</v>
+        <v>0.004644131003555555</v>
       </c>
       <c r="R6">
-        <v>0.06022388504100001</v>
+        <v>0.041797179032</v>
       </c>
       <c r="S6">
-        <v>0.001129779873258466</v>
+        <v>0.00151015359571773</v>
       </c>
       <c r="T6">
-        <v>0.001129779873258466</v>
+        <v>0.00151015359571773</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.044179</v>
+        <v>0.05914533333333333</v>
       </c>
       <c r="H7">
-        <v>0.132537</v>
+        <v>0.177436</v>
       </c>
       <c r="I7">
-        <v>0.03840354245492683</v>
+        <v>0.07385227547053584</v>
       </c>
       <c r="J7">
-        <v>0.03840354245492684</v>
+        <v>0.07385227547053583</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6020886666666666</v>
+        <v>0.7251310000000001</v>
       </c>
       <c r="N7">
-        <v>1.806266</v>
+        <v>2.175393</v>
       </c>
       <c r="O7">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="P7">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="Q7">
-        <v>0.02659967520466667</v>
+        <v>0.04288811470533333</v>
       </c>
       <c r="R7">
-        <v>0.239397076842</v>
+        <v>0.385993032348</v>
       </c>
       <c r="S7">
-        <v>0.004491008823971926</v>
+        <v>0.01394612696890492</v>
       </c>
       <c r="T7">
-        <v>0.004491008823971928</v>
+        <v>0.01394612696890492</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>0.794766</v>
       </c>
       <c r="I8">
-        <v>0.2302891254723766</v>
+        <v>0.3307968933396599</v>
       </c>
       <c r="J8">
-        <v>0.2302891254723766</v>
+        <v>0.3307968933396598</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.02516733333333333</v>
+        <v>0.1698666666666667</v>
       </c>
       <c r="N8">
-        <v>0.075502</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="O8">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="P8">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="Q8">
-        <v>0.006667380281333333</v>
+        <v>0.04500141706666667</v>
       </c>
       <c r="R8">
-        <v>0.060006422532</v>
+        <v>0.4050127536000001</v>
       </c>
       <c r="S8">
-        <v>0.001125700349566342</v>
+        <v>0.01463331928913942</v>
       </c>
       <c r="T8">
-        <v>0.001125700349566342</v>
+        <v>0.01463331928913941</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.794766</v>
       </c>
       <c r="I9">
-        <v>0.2302891254723766</v>
+        <v>0.3307968933396599</v>
       </c>
       <c r="J9">
-        <v>0.2302891254723766</v>
+        <v>0.3307968933396598</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.146943</v>
       </c>
       <c r="O9">
-        <v>0.07425620492571647</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="P9">
-        <v>0.07425620492571648</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="Q9">
         <v>0.1012834778153333</v>
@@ -1013,10 +1013,10 @@
         <v>0.911551300338</v>
       </c>
       <c r="S9">
-        <v>0.01710039649324083</v>
+        <v>0.03293481775008523</v>
       </c>
       <c r="T9">
-        <v>0.01710039649324083</v>
+        <v>0.03293481775008521</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>0.794766</v>
       </c>
       <c r="I10">
-        <v>0.2302891254723766</v>
+        <v>0.3307968933396599</v>
       </c>
       <c r="J10">
-        <v>0.2302891254723766</v>
+        <v>0.3307968933396598</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.7297406666666667</v>
+        <v>0.655462</v>
       </c>
       <c r="N10">
-        <v>2.189222</v>
+        <v>1.966386</v>
       </c>
       <c r="O10">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="P10">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="Q10">
-        <v>0.1933243568946667</v>
+        <v>0.173646303964</v>
       </c>
       <c r="R10">
-        <v>1.739919212052</v>
+        <v>1.562816735676</v>
       </c>
       <c r="S10">
-        <v>0.03264030053082469</v>
+        <v>0.05646537320191072</v>
       </c>
       <c r="T10">
-        <v>0.0326403005308247</v>
+        <v>0.0564653732019107</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.794766</v>
       </c>
       <c r="I11">
-        <v>0.2302891254723766</v>
+        <v>0.3307968933396599</v>
       </c>
       <c r="J11">
-        <v>0.2302891254723766</v>
+        <v>0.3307968933396598</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.257809</v>
+        <v>1.828665666666667</v>
       </c>
       <c r="N11">
-        <v>9.773427</v>
+        <v>5.485997</v>
       </c>
       <c r="O11">
-        <v>0.6327582086804054</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="P11">
-        <v>0.6327582086804056</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="Q11">
-        <v>0.863065275898</v>
+        <v>0.4844537657446667</v>
       </c>
       <c r="R11">
-        <v>7.767587483082</v>
+        <v>4.360083891702</v>
       </c>
       <c r="S11">
-        <v>0.1457173345124781</v>
+        <v>0.1575320755892091</v>
       </c>
       <c r="T11">
-        <v>0.1457173345124782</v>
+        <v>0.1575320755892091</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>0.794766</v>
       </c>
       <c r="I12">
-        <v>0.2302891254723766</v>
+        <v>0.3307968933396599</v>
       </c>
       <c r="J12">
-        <v>0.2302891254723766</v>
+        <v>0.3307968933396598</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.1514643333333333</v>
+        <v>0.07852066666666667</v>
       </c>
       <c r="N12">
-        <v>0.454393</v>
+        <v>0.235562</v>
       </c>
       <c r="O12">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="P12">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="Q12">
-        <v>0.04012623411533334</v>
+        <v>0.02080185205466667</v>
       </c>
       <c r="R12">
-        <v>0.361136107038</v>
+        <v>0.187216668492</v>
       </c>
       <c r="S12">
-        <v>0.006774792176902583</v>
+        <v>0.006764234612221859</v>
       </c>
       <c r="T12">
-        <v>0.006774792176902584</v>
+        <v>0.006764234612221857</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.794766</v>
       </c>
       <c r="I13">
-        <v>0.2302891254723766</v>
+        <v>0.3307968933396599</v>
       </c>
       <c r="J13">
-        <v>0.2302891254723766</v>
+        <v>0.3307968933396598</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6020886666666666</v>
+        <v>0.7251310000000001</v>
       </c>
       <c r="N13">
-        <v>1.806266</v>
+        <v>2.175393</v>
       </c>
       <c r="O13">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="P13">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="Q13">
-        <v>0.1595065337506666</v>
+        <v>0.192103154782</v>
       </c>
       <c r="R13">
-        <v>1.435558803756</v>
+        <v>1.728928393038</v>
       </c>
       <c r="S13">
-        <v>0.02693060140936396</v>
+        <v>0.06246707289709354</v>
       </c>
       <c r="T13">
-        <v>0.02693060140936397</v>
+        <v>0.06246707289709352</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1903823333333333</v>
+        <v>0.1332633333333333</v>
       </c>
       <c r="H14">
-        <v>0.5711470000000001</v>
+        <v>0.39979</v>
       </c>
       <c r="I14">
-        <v>0.165493922923441</v>
+        <v>0.1664002863588309</v>
       </c>
       <c r="J14">
-        <v>0.165493922923441</v>
+        <v>0.1664002863588309</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.02516733333333333</v>
+        <v>0.1698666666666667</v>
       </c>
       <c r="N14">
-        <v>0.075502</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="O14">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="P14">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="Q14">
-        <v>0.004791415643777778</v>
+        <v>0.02263699822222222</v>
       </c>
       <c r="R14">
-        <v>0.043122740794</v>
+        <v>0.203732984</v>
       </c>
       <c r="S14">
-        <v>0.0008089681460376609</v>
+        <v>0.007360977594166142</v>
       </c>
       <c r="T14">
-        <v>0.000808968146037661</v>
+        <v>0.007360977594166141</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1903823333333333</v>
+        <v>0.1332633333333333</v>
       </c>
       <c r="H15">
-        <v>0.5711470000000001</v>
+        <v>0.39979</v>
       </c>
       <c r="I15">
-        <v>0.165493922923441</v>
+        <v>0.1664002863588309</v>
       </c>
       <c r="J15">
-        <v>0.165493922923441</v>
+        <v>0.1664002863588309</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.146943</v>
       </c>
       <c r="O15">
-        <v>0.07425620492571647</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="P15">
-        <v>0.07425620492571648</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="Q15">
-        <v>0.07278589484677779</v>
+        <v>0.05094848244111111</v>
       </c>
       <c r="R15">
-        <v>0.6550730536210001</v>
+        <v>0.45853634197</v>
       </c>
       <c r="S15">
-        <v>0.01228895065456376</v>
+        <v>0.01656715409102374</v>
       </c>
       <c r="T15">
-        <v>0.01228895065456376</v>
+        <v>0.01656715409102373</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1903823333333333</v>
+        <v>0.1332633333333333</v>
       </c>
       <c r="H16">
-        <v>0.5711470000000001</v>
+        <v>0.39979</v>
       </c>
       <c r="I16">
-        <v>0.165493922923441</v>
+        <v>0.1664002863588309</v>
       </c>
       <c r="J16">
-        <v>0.165493922923441</v>
+        <v>0.1664002863588309</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.7297406666666667</v>
+        <v>0.655462</v>
       </c>
       <c r="N16">
-        <v>2.189222</v>
+        <v>1.966386</v>
       </c>
       <c r="O16">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="P16">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="Q16">
-        <v>0.1389297308482222</v>
+        <v>0.08734905099333332</v>
       </c>
       <c r="R16">
-        <v>1.250367577634</v>
+        <v>0.78614145894</v>
       </c>
       <c r="S16">
-        <v>0.02345647615433843</v>
+        <v>0.02840369561907767</v>
       </c>
       <c r="T16">
-        <v>0.02345647615433843</v>
+        <v>0.02840369561907766</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1903823333333333</v>
+        <v>0.1332633333333333</v>
       </c>
       <c r="H17">
-        <v>0.5711470000000001</v>
+        <v>0.39979</v>
       </c>
       <c r="I17">
-        <v>0.165493922923441</v>
+        <v>0.1664002863588309</v>
       </c>
       <c r="J17">
-        <v>0.165493922923441</v>
+        <v>0.1664002863588309</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.257809</v>
+        <v>1.828665666666667</v>
       </c>
       <c r="N17">
-        <v>9.773427</v>
+        <v>5.485997</v>
       </c>
       <c r="O17">
-        <v>0.6327582086804054</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="P17">
-        <v>0.6327582086804056</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="Q17">
-        <v>0.6202292789743333</v>
+        <v>0.2436940822922222</v>
       </c>
       <c r="R17">
-        <v>5.582063510769</v>
+        <v>2.19324674063</v>
       </c>
       <c r="S17">
-        <v>0.1047176382165296</v>
+        <v>0.07924313382783098</v>
       </c>
       <c r="T17">
-        <v>0.1047176382165296</v>
+        <v>0.07924313382783096</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.1903823333333333</v>
+        <v>0.1332633333333333</v>
       </c>
       <c r="H18">
-        <v>0.5711470000000001</v>
+        <v>0.39979</v>
       </c>
       <c r="I18">
-        <v>0.165493922923441</v>
+        <v>0.1664002863588309</v>
       </c>
       <c r="J18">
-        <v>0.165493922923441</v>
+        <v>0.1664002863588309</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.1514643333333333</v>
+        <v>0.07852066666666667</v>
       </c>
       <c r="N18">
-        <v>0.454393</v>
+        <v>0.235562</v>
       </c>
       <c r="O18">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="P18">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="Q18">
-        <v>0.02883613319677778</v>
+        <v>0.01046392577555555</v>
       </c>
       <c r="R18">
-        <v>0.2595251987710001</v>
+        <v>0.09417533198</v>
       </c>
       <c r="S18">
-        <v>0.004868605636704867</v>
+        <v>0.003402603226132191</v>
       </c>
       <c r="T18">
-        <v>0.004868605636704867</v>
+        <v>0.00340260322613219</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.1903823333333333</v>
+        <v>0.1332633333333333</v>
       </c>
       <c r="H19">
-        <v>0.5711470000000001</v>
+        <v>0.39979</v>
       </c>
       <c r="I19">
-        <v>0.165493922923441</v>
+        <v>0.1664002863588309</v>
       </c>
       <c r="J19">
-        <v>0.165493922923441</v>
+        <v>0.1664002863588309</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.6020886666666666</v>
+        <v>0.7251310000000001</v>
       </c>
       <c r="N19">
-        <v>1.806266</v>
+        <v>2.175393</v>
       </c>
       <c r="O19">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="P19">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="Q19">
-        <v>0.1146270452335555</v>
+        <v>0.09663337416333333</v>
       </c>
       <c r="R19">
-        <v>1.031643407102</v>
+        <v>0.86970036747</v>
       </c>
       <c r="S19">
-        <v>0.01935328411526663</v>
+        <v>0.03142272200060021</v>
       </c>
       <c r="T19">
-        <v>0.01935328411526664</v>
+        <v>0.0314227220006002</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4567919999999999</v>
+        <v>0.1101406666666667</v>
       </c>
       <c r="H20">
-        <v>1.370376</v>
+        <v>0.330422</v>
       </c>
       <c r="I20">
-        <v>0.3970762345247953</v>
+        <v>0.1375279907432843</v>
       </c>
       <c r="J20">
-        <v>0.3970762345247953</v>
+        <v>0.1375279907432843</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.02516733333333333</v>
+        <v>0.1698666666666667</v>
       </c>
       <c r="N20">
-        <v>0.075502</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="O20">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="P20">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="Q20">
-        <v>0.011496236528</v>
+        <v>0.01870922791111111</v>
       </c>
       <c r="R20">
-        <v>0.103466128752</v>
+        <v>0.1683830512</v>
       </c>
       <c r="S20">
-        <v>0.001940989853915901</v>
+        <v>0.006083766323868945</v>
       </c>
       <c r="T20">
-        <v>0.001940989853915901</v>
+        <v>0.006083766323868943</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4567919999999999</v>
+        <v>0.1101406666666667</v>
       </c>
       <c r="H21">
-        <v>1.370376</v>
+        <v>0.330422</v>
       </c>
       <c r="I21">
-        <v>0.3970762345247953</v>
+        <v>0.1375279907432843</v>
       </c>
       <c r="J21">
-        <v>0.3970762345247953</v>
+        <v>0.1375279907432843</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.146943</v>
       </c>
       <c r="O21">
-        <v>0.07425620492571647</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="P21">
-        <v>0.07425620492571648</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="Q21">
-        <v>0.174638128952</v>
+        <v>0.04210835554955556</v>
       </c>
       <c r="R21">
-        <v>1.571743160568</v>
+        <v>0.378975199946</v>
       </c>
       <c r="S21">
-        <v>0.02948537424200505</v>
+        <v>0.01369256907142311</v>
       </c>
       <c r="T21">
-        <v>0.02948537424200506</v>
+        <v>0.01369256907142311</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4567919999999999</v>
+        <v>0.1101406666666667</v>
       </c>
       <c r="H22">
-        <v>1.370376</v>
+        <v>0.330422</v>
       </c>
       <c r="I22">
-        <v>0.3970762345247953</v>
+        <v>0.1375279907432843</v>
       </c>
       <c r="J22">
-        <v>0.3970762345247953</v>
+        <v>0.1375279907432843</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.7297406666666667</v>
+        <v>0.655462</v>
       </c>
       <c r="N22">
-        <v>2.189222</v>
+        <v>1.966386</v>
       </c>
       <c r="O22">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="P22">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="Q22">
-        <v>0.3333396986079999</v>
+        <v>0.07219302165466666</v>
       </c>
       <c r="R22">
-        <v>3.000057287472</v>
+        <v>0.649737194892</v>
       </c>
       <c r="S22">
-        <v>0.05628006794481573</v>
+        <v>0.02347533933776954</v>
       </c>
       <c r="T22">
-        <v>0.05628006794481574</v>
+        <v>0.02347533933776953</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4567919999999999</v>
+        <v>0.1101406666666667</v>
       </c>
       <c r="H23">
-        <v>1.370376</v>
+        <v>0.330422</v>
       </c>
       <c r="I23">
-        <v>0.3970762345247953</v>
+        <v>0.1375279907432843</v>
       </c>
       <c r="J23">
-        <v>0.3970762345247953</v>
+        <v>0.1375279907432843</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.257809</v>
+        <v>1.828665666666667</v>
       </c>
       <c r="N23">
-        <v>9.773427</v>
+        <v>5.485997</v>
       </c>
       <c r="O23">
-        <v>0.6327582086804054</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="P23">
-        <v>0.6327582086804056</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="Q23">
-        <v>1.488141088728</v>
+        <v>0.2014104556371111</v>
       </c>
       <c r="R23">
-        <v>13.393269798552</v>
+        <v>1.812694100734</v>
       </c>
       <c r="S23">
-        <v>0.25125324686747</v>
+        <v>0.06549357103894438</v>
       </c>
       <c r="T23">
-        <v>0.2512532468674701</v>
+        <v>0.06549357103894436</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4567919999999999</v>
+        <v>0.1101406666666667</v>
       </c>
       <c r="H24">
-        <v>1.370376</v>
+        <v>0.330422</v>
       </c>
       <c r="I24">
-        <v>0.3970762345247953</v>
+        <v>0.1375279907432843</v>
       </c>
       <c r="J24">
-        <v>0.3970762345247953</v>
+        <v>0.1375279907432843</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.1514643333333333</v>
+        <v>0.07852066666666667</v>
       </c>
       <c r="N24">
-        <v>0.454393</v>
+        <v>0.235562</v>
       </c>
       <c r="O24">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="P24">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="Q24">
-        <v>0.069187695752</v>
+        <v>0.008648318573777777</v>
       </c>
       <c r="R24">
-        <v>0.6226892617679999</v>
+        <v>0.077834867164</v>
       </c>
       <c r="S24">
-        <v>0.01168144158685079</v>
+        <v>0.002812213820218242</v>
       </c>
       <c r="T24">
-        <v>0.01168144158685079</v>
+        <v>0.002812213820218241</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4567919999999999</v>
+        <v>0.1101406666666667</v>
       </c>
       <c r="H25">
-        <v>1.370376</v>
+        <v>0.330422</v>
       </c>
       <c r="I25">
-        <v>0.3970762345247953</v>
+        <v>0.1375279907432843</v>
       </c>
       <c r="J25">
-        <v>0.3970762345247953</v>
+        <v>0.1375279907432843</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.6020886666666666</v>
+        <v>0.7251310000000001</v>
       </c>
       <c r="N25">
-        <v>1.806266</v>
+        <v>2.175393</v>
       </c>
       <c r="O25">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="P25">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="Q25">
-        <v>0.2750292862239999</v>
+        <v>0.07986641176066668</v>
       </c>
       <c r="R25">
-        <v>2.475263576016</v>
+        <v>0.718797705846</v>
       </c>
       <c r="S25">
-        <v>0.04643511402973773</v>
+        <v>0.02597053115106011</v>
       </c>
       <c r="T25">
-        <v>0.04643511402973775</v>
+        <v>0.02597053115106011</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.072059</v>
+        <v>0.04289533333333333</v>
       </c>
       <c r="H26">
-        <v>0.216177</v>
+        <v>0.128686</v>
       </c>
       <c r="I26">
-        <v>0.06263882989111505</v>
+        <v>0.05356158795961009</v>
       </c>
       <c r="J26">
-        <v>0.06263882989111506</v>
+        <v>0.05356158795961007</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.02516733333333333</v>
+        <v>0.1698666666666667</v>
       </c>
       <c r="N26">
-        <v>0.075502</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="O26">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="P26">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="Q26">
-        <v>0.001813532872666667</v>
+        <v>0.00728648728888889</v>
       </c>
       <c r="R26">
-        <v>0.016321795854</v>
+        <v>0.06557838560000001</v>
       </c>
       <c r="S26">
-        <v>0.0003061914129041794</v>
+        <v>0.002369380831643774</v>
       </c>
       <c r="T26">
-        <v>0.0003061914129041795</v>
+        <v>0.002369380831643773</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.072059</v>
+        <v>0.04289533333333333</v>
       </c>
       <c r="H27">
-        <v>0.216177</v>
+        <v>0.128686</v>
       </c>
       <c r="I27">
-        <v>0.06263882989111505</v>
+        <v>0.05356158795961009</v>
       </c>
       <c r="J27">
-        <v>0.06263882989111506</v>
+        <v>0.05356158795961007</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.146943</v>
       </c>
       <c r="O27">
-        <v>0.07425620492571647</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="P27">
-        <v>0.07425620492571648</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="Q27">
-        <v>0.02754918854566667</v>
+        <v>0.01639950076644445</v>
       </c>
       <c r="R27">
-        <v>0.247942696911</v>
+        <v>0.147595506898</v>
       </c>
       <c r="S27">
-        <v>0.004651321788701733</v>
+        <v>0.005332701646758251</v>
       </c>
       <c r="T27">
-        <v>0.004651321788701735</v>
+        <v>0.005332701646758248</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.072059</v>
+        <v>0.04289533333333333</v>
       </c>
       <c r="H28">
-        <v>0.216177</v>
+        <v>0.128686</v>
       </c>
       <c r="I28">
-        <v>0.06263882989111505</v>
+        <v>0.05356158795961009</v>
       </c>
       <c r="J28">
-        <v>0.06263882989111506</v>
+        <v>0.05356158795961007</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.7297406666666667</v>
+        <v>0.655462</v>
       </c>
       <c r="N28">
-        <v>2.189222</v>
+        <v>1.966386</v>
       </c>
       <c r="O28">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="P28">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="Q28">
-        <v>0.05258438269933333</v>
+        <v>0.02811626097733333</v>
       </c>
       <c r="R28">
-        <v>0.473259444294</v>
+        <v>0.253046348796</v>
       </c>
       <c r="S28">
-        <v>0.008878188357141711</v>
+        <v>0.00914269485088829</v>
       </c>
       <c r="T28">
-        <v>0.008878188357141714</v>
+        <v>0.009142694850888287</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.072059</v>
+        <v>0.04289533333333333</v>
       </c>
       <c r="H29">
-        <v>0.216177</v>
+        <v>0.128686</v>
       </c>
       <c r="I29">
-        <v>0.06263882989111505</v>
+        <v>0.05356158795961009</v>
       </c>
       <c r="J29">
-        <v>0.06263882989111506</v>
+        <v>0.05356158795961007</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.257809</v>
+        <v>1.828665666666667</v>
       </c>
       <c r="N29">
-        <v>9.773427</v>
+        <v>5.485997</v>
       </c>
       <c r="O29">
-        <v>0.6327582086804054</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="P29">
-        <v>0.6327582086804056</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="Q29">
-        <v>0.234754458731</v>
+        <v>0.0784412233268889</v>
       </c>
       <c r="R29">
-        <v>2.112790128579</v>
+        <v>0.705971009942</v>
       </c>
       <c r="S29">
-        <v>0.03963523379573859</v>
+        <v>0.02550709602483369</v>
       </c>
       <c r="T29">
-        <v>0.03963523379573861</v>
+        <v>0.02550709602483368</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.072059</v>
+        <v>0.04289533333333333</v>
       </c>
       <c r="H30">
-        <v>0.216177</v>
+        <v>0.128686</v>
       </c>
       <c r="I30">
-        <v>0.06263882989111505</v>
+        <v>0.05356158795961009</v>
       </c>
       <c r="J30">
-        <v>0.06263882989111506</v>
+        <v>0.05356158795961007</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>0.1514643333333333</v>
+        <v>0.07852066666666667</v>
       </c>
       <c r="N30">
-        <v>0.454393</v>
+        <v>0.235562</v>
       </c>
       <c r="O30">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="P30">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="Q30">
-        <v>0.01091436839566667</v>
+        <v>0.003368170170222222</v>
       </c>
       <c r="R30">
-        <v>0.09822931556100001</v>
+        <v>0.030313531532</v>
       </c>
       <c r="S30">
-        <v>0.001842748995838108</v>
+        <v>0.001095243499732477</v>
       </c>
       <c r="T30">
-        <v>0.001842748995838108</v>
+        <v>0.001095243499732477</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.072059</v>
+        <v>0.04289533333333333</v>
       </c>
       <c r="H31">
-        <v>0.216177</v>
+        <v>0.128686</v>
       </c>
       <c r="I31">
-        <v>0.06263882989111505</v>
+        <v>0.05356158795961009</v>
       </c>
       <c r="J31">
-        <v>0.06263882989111506</v>
+        <v>0.05356158795961007</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.6020886666666666</v>
+        <v>0.7251310000000001</v>
       </c>
       <c r="N31">
-        <v>1.806266</v>
+        <v>2.175393</v>
       </c>
       <c r="O31">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="P31">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="Q31">
-        <v>0.04338590723133333</v>
+        <v>0.03110473595533334</v>
       </c>
       <c r="R31">
-        <v>0.390473165082</v>
+        <v>0.279942623598</v>
       </c>
       <c r="S31">
-        <v>0.007325145540790713</v>
+        <v>0.01011447110575362</v>
       </c>
       <c r="T31">
-        <v>0.007325145540790717</v>
+        <v>0.01011447110575361</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0.1220543333333333</v>
+        <v>0.1904933333333333</v>
       </c>
       <c r="H32">
-        <v>0.366163</v>
+        <v>0.57148</v>
       </c>
       <c r="I32">
-        <v>0.1060983447333452</v>
+        <v>0.237860966128079</v>
       </c>
       <c r="J32">
-        <v>0.1060983447333452</v>
+        <v>0.2378609661280789</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M32">
-        <v>0.02516733333333333</v>
+        <v>0.1698666666666667</v>
       </c>
       <c r="N32">
-        <v>0.075502</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="O32">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="P32">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="Q32">
-        <v>0.003071782091777778</v>
+        <v>0.03235846755555556</v>
       </c>
       <c r="R32">
-        <v>0.027646038826</v>
+        <v>0.291226208</v>
       </c>
       <c r="S32">
-        <v>0.0005186304108357183</v>
+        <v>0.01052215281901515</v>
       </c>
       <c r="T32">
-        <v>0.0005186304108357184</v>
+        <v>0.01052215281901515</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0.1220543333333333</v>
+        <v>0.1904933333333333</v>
       </c>
       <c r="H33">
-        <v>0.366163</v>
+        <v>0.57148</v>
       </c>
       <c r="I33">
-        <v>0.1060983447333452</v>
+        <v>0.237860966128079</v>
       </c>
       <c r="J33">
-        <v>0.1060983447333452</v>
+        <v>0.2378609661280789</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.146943</v>
       </c>
       <c r="O33">
-        <v>0.07425620492571647</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="P33">
-        <v>0.07425620492571648</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="Q33">
-        <v>0.04666312107877778</v>
+        <v>0.07282833173777778</v>
       </c>
       <c r="R33">
-        <v>0.419968089709</v>
+        <v>0.65545498564</v>
       </c>
       <c r="S33">
-        <v>0.007878460428798591</v>
+        <v>0.02368192606102765</v>
       </c>
       <c r="T33">
-        <v>0.007878460428798592</v>
+        <v>0.02368192606102765</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.1220543333333333</v>
+        <v>0.1904933333333333</v>
       </c>
       <c r="H34">
-        <v>0.366163</v>
+        <v>0.57148</v>
       </c>
       <c r="I34">
-        <v>0.1060983447333452</v>
+        <v>0.237860966128079</v>
       </c>
       <c r="J34">
-        <v>0.1060983447333452</v>
+        <v>0.2378609661280789</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.7297406666666667</v>
+        <v>0.655462</v>
       </c>
       <c r="N34">
-        <v>2.189222</v>
+        <v>1.966386</v>
       </c>
       <c r="O34">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="P34">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="Q34">
-        <v>0.08906801057622223</v>
+        <v>0.1248611412533333</v>
       </c>
       <c r="R34">
-        <v>0.8016120951860001</v>
+        <v>1.12375027128</v>
       </c>
       <c r="S34">
-        <v>0.01503797389831518</v>
+        <v>0.04060167581077693</v>
       </c>
       <c r="T34">
-        <v>0.01503797389831518</v>
+        <v>0.04060167581077691</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0.1220543333333333</v>
+        <v>0.1904933333333333</v>
       </c>
       <c r="H35">
-        <v>0.366163</v>
+        <v>0.57148</v>
       </c>
       <c r="I35">
-        <v>0.1060983447333452</v>
+        <v>0.237860966128079</v>
       </c>
       <c r="J35">
-        <v>0.1060983447333452</v>
+        <v>0.2378609661280789</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>3.257809</v>
+        <v>1.828665666666667</v>
       </c>
       <c r="N35">
-        <v>9.773427</v>
+        <v>5.485997</v>
       </c>
       <c r="O35">
-        <v>0.6327582086804054</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="P35">
-        <v>0.6327582086804056</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="Q35">
-        <v>0.3976297056223334</v>
+        <v>0.3483486183955555</v>
       </c>
       <c r="R35">
-        <v>3.578667350601</v>
+        <v>3.13513756556</v>
       </c>
       <c r="S35">
-        <v>0.06713459855742764</v>
+        <v>0.1132741342202878</v>
       </c>
       <c r="T35">
-        <v>0.06713459855742765</v>
+        <v>0.1132741342202878</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0.1220543333333333</v>
+        <v>0.1904933333333333</v>
       </c>
       <c r="H36">
-        <v>0.366163</v>
+        <v>0.57148</v>
       </c>
       <c r="I36">
-        <v>0.1060983447333452</v>
+        <v>0.237860966128079</v>
       </c>
       <c r="J36">
-        <v>0.1060983447333452</v>
+        <v>0.2378609661280789</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M36">
-        <v>0.1514643333333333</v>
+        <v>0.07852066666666667</v>
       </c>
       <c r="N36">
-        <v>0.454393</v>
+        <v>0.235562</v>
       </c>
       <c r="O36">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="P36">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="Q36">
-        <v>0.01848687822877778</v>
+        <v>0.01495766352888889</v>
       </c>
       <c r="R36">
-        <v>0.166381904059</v>
+        <v>0.13461897176</v>
       </c>
       <c r="S36">
-        <v>0.003121268685211975</v>
+        <v>0.004863852751869793</v>
       </c>
       <c r="T36">
-        <v>0.003121268685211975</v>
+        <v>0.004863852751869792</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0.1220543333333333</v>
+        <v>0.1904933333333333</v>
       </c>
       <c r="H37">
-        <v>0.366163</v>
+        <v>0.57148</v>
       </c>
       <c r="I37">
-        <v>0.1060983447333452</v>
+        <v>0.237860966128079</v>
       </c>
       <c r="J37">
-        <v>0.1060983447333452</v>
+        <v>0.2378609661280789</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.6020886666666666</v>
+        <v>0.7251310000000001</v>
       </c>
       <c r="N37">
-        <v>1.806266</v>
+        <v>2.175393</v>
       </c>
       <c r="O37">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="P37">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="Q37">
-        <v>0.07348753081755555</v>
+        <v>0.1381326212933333</v>
       </c>
       <c r="R37">
-        <v>0.661387777358</v>
+        <v>1.24319359164</v>
       </c>
       <c r="S37">
-        <v>0.01240741275275608</v>
+        <v>0.0449172244651017</v>
       </c>
       <c r="T37">
-        <v>0.01240741275275608</v>
+        <v>0.04491722446510168</v>
       </c>
     </row>
   </sheetData>
